--- a/tabelas/setor_emprego.xlsx
+++ b/tabelas/setor_emprego.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">UF</t>
   </si>
@@ -35,100 +35,97 @@
     <t xml:space="preserve">Informação, comunicação e atividades financeiras, imobiliárias, profissionais e administrativas </t>
   </si>
   <si>
+    <t xml:space="preserve">Outros serviços</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serviços domésticos</t>
   </si>
   <si>
     <t xml:space="preserve">Transporte, armazenagem e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros serviços </t>
-  </si>
-  <si>
     <t xml:space="preserve">Atividades maldefinidas</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
+    <t xml:space="preserve">Rondônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roraima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amapá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranhão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piauí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraíba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernambuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alagoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minas Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Santo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goiás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrito Federal</t>
   </si>
 </sst>
 </file>
@@ -494,955 +491,915 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193206510352158</v>
+        <v>0.285173138730618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0237536102673944</v>
+        <v>0.0350603692587269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0362248823878552</v>
+        <v>0.0534679881742235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.212113191028735</v>
+        <v>0.313079431648438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0056360155812861</v>
+        <v>0.00831876860836888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0683535272554573</v>
+        <v>0.100889922783753</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0601964071421374</v>
+        <v>0.0444029239176145</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0479386013193722</v>
+        <v>0.0888499995871791</v>
       </c>
       <c r="J2" t="n">
-        <v>0.352577254665605</v>
+        <v>0.0707574572910786</v>
       </c>
       <c r="K2"/>
-      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25861720314824</v>
+        <v>0.348373034286191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0219319166850106</v>
+        <v>0.0295436199535788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0475809921507829</v>
+        <v>0.0640944778929278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175120290063517</v>
+        <v>0.235897635856559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00476880837303391</v>
+        <v>0.00642387367359682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.100536753797023</v>
+        <v>0.135429095787865</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0609548650002755</v>
+        <v>0.0503671970405704</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0354558454341981</v>
+        <v>0.0821098945319548</v>
       </c>
       <c r="J3" t="n">
-        <v>0.29503332534792</v>
+        <v>0.0477611709767571</v>
       </c>
       <c r="K3"/>
-      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187317369300371</v>
+        <v>0.263041869013845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0708034141765072</v>
+        <v>0.0994262436372625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0507117478779293</v>
+        <v>0.071212365370022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.178740545217539</v>
+        <v>0.250997797258099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00305440474468963</v>
+        <v>0.00428917155824226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0853257644019212</v>
+        <v>0.11981936660303</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0441699809945751</v>
+        <v>0.0604019562623597</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0489833091111748</v>
+        <v>0.0620260384742442</v>
       </c>
       <c r="J4" t="n">
-        <v>0.330893464175292</v>
+        <v>0.068785191822896</v>
       </c>
       <c r="K4"/>
-      <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.256009006817165</v>
+        <v>0.335982772310251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0235225950883613</v>
+        <v>0.0308707369634201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0415265751422141</v>
+        <v>0.0544989178868826</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203878754409288</v>
+        <v>0.267567731202966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00986305004712087</v>
+        <v>0.0129441340344446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0855596441130347</v>
+        <v>0.112287324513961</v>
       </c>
       <c r="H5" t="n">
-        <v>0.057166086469124</v>
+        <v>0.057179333538675</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0408759510935426</v>
+        <v>0.0750240019006082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.281139847775309</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.000458489044840644</v>
-      </c>
-      <c r="L5"/>
+        <v>0.0536450476487918</v>
+      </c>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172954971637969</v>
+        <v>0.256948197344116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0348560566850488</v>
+        <v>0.0517834257490721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0507141323565722</v>
+        <v>0.075342759826347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.194978232780836</v>
+        <v>0.289666755224855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00803114272824685</v>
+        <v>0.0119313577811215</v>
       </c>
       <c r="G6" t="n">
-        <v>0.063665335666137</v>
+        <v>0.0945835385811526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0567333674224303</v>
+        <v>0.0753136082331608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0404844710438233</v>
+        <v>0.0842851543982715</v>
       </c>
       <c r="J6" t="n">
-        <v>0.377582289678937</v>
+        <v>0.0601452028619039</v>
       </c>
       <c r="K6"/>
-      <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.26232104925923</v>
+        <v>0.32611344997681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0201481794617627</v>
+        <v>0.0250479034510653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0528497043784843</v>
+        <v>0.0657019307973648</v>
       </c>
       <c r="E7" t="n">
-        <v>0.212933628378537</v>
+        <v>0.264715776193707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00611816928551876</v>
+        <v>0.00760601293291935</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0877353421520927</v>
+        <v>0.109071213289637</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0619885756477777</v>
+        <v>0.059931690106546</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0520830112176871</v>
+        <v>0.0770632334718521</v>
       </c>
       <c r="J7" t="n">
-        <v>0.24382234021891</v>
+        <v>0.0647487897800989</v>
       </c>
       <c r="K7"/>
-      <c r="L7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252604027912593</v>
+        <v>0.3557570058628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0236860269917767</v>
+        <v>0.0333584151963549</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0423335021550497</v>
+        <v>0.0596207435757046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.168836488295415</v>
+        <v>0.23778228737172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0104616509867025</v>
+        <v>0.0147337540979303</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0709157858222943</v>
+        <v>0.0998748430142875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0704891643226418</v>
+        <v>0.0586905491006269</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0290468637770869</v>
+        <v>0.0992740070394725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.33162648973644</v>
+        <v>0.0409083947411033</v>
       </c>
       <c r="K8"/>
-      <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.232726402312096</v>
+        <v>0.31801530063627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0341230405087918</v>
+        <v>0.0466283536299182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0410547541178059</v>
+        <v>0.0561003815794542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.22155255723848</v>
+        <v>0.302746497161261</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00560008141341065</v>
+        <v>0.0076523830411175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0592846465352098</v>
+        <v>0.0810111122060249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0555459132228554</v>
+        <v>0.0618290980814321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.036674346556738</v>
+        <v>0.0759022187306178</v>
       </c>
       <c r="J9" t="n">
-        <v>0.313438258094612</v>
+        <v>0.0501146549339047</v>
       </c>
       <c r="K9"/>
-      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.205250304758711</v>
+        <v>0.282374687162296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420470697173338</v>
+        <v>0.0578465799185103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0503303988575028</v>
+        <v>0.0692424337632453</v>
       </c>
       <c r="E10" t="n">
-        <v>0.185264683341038</v>
+        <v>0.254879314611235</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00818279408838213</v>
+        <v>0.0112575419731372</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0823597003017303</v>
+        <v>0.113306991845012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0740775885829344</v>
+        <v>0.0676535724864175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0300749455917758</v>
+        <v>0.101912812877105</v>
       </c>
       <c r="J10" t="n">
-        <v>0.32230331864743</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="n">
-        <v>0.000109196113162175</v>
+        <v>0.0413758379695675</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00015022739347333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.185271251475468</v>
+        <v>0.246071572807895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.085034147088239</v>
+        <v>0.112939736466084</v>
       </c>
       <c r="D11" t="n">
-        <v>0.044648172012763</v>
+        <v>0.0593003276152252</v>
       </c>
       <c r="E11" t="n">
-        <v>0.19998666080869</v>
+        <v>0.265616126484196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00545730488825461</v>
+        <v>0.00724822435456393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0861854372577769</v>
+        <v>0.114468844627875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611210195920117</v>
+        <v>0.0645928404921302</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0365791270421324</v>
+        <v>0.0811790566688107</v>
       </c>
       <c r="J11" t="n">
-        <v>0.295716879834665</v>
+        <v>0.0485832704832199</v>
       </c>
       <c r="K11"/>
-      <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.205619363092004</v>
+        <v>0.267798646929211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0475200883272711</v>
+        <v>0.0618901603654206</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0536176688555152</v>
+        <v>0.0698316489025435</v>
       </c>
       <c r="E12" t="n">
-        <v>0.191296754501355</v>
+        <v>0.249144882306099</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00627933522771255</v>
+        <v>0.00817820584749072</v>
       </c>
       <c r="G12" t="n">
-        <v>0.118968424815433</v>
+        <v>0.154944469790118</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0657301402241667</v>
+        <v>0.0650556231481106</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0288309531635044</v>
+        <v>0.0856069309320004</v>
       </c>
       <c r="J12" t="n">
-        <v>0.282137271793038</v>
+        <v>0.0375494317790062</v>
       </c>
       <c r="K12"/>
-      <c r="L12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.212245611171721</v>
+        <v>0.286178712565844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0641191637566636</v>
+        <v>0.0864542716967397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0443003136834784</v>
+        <v>0.0597317733271935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.172049314334539</v>
+        <v>0.231980538972175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00488554420073071</v>
+        <v>0.00658736235736555</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0868950066617282</v>
+        <v>0.117163794330401</v>
       </c>
       <c r="H13" t="n">
-        <v>0.068940446045715</v>
+        <v>0.0642386949547338</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0405757944772989</v>
+        <v>0.0929549873100341</v>
       </c>
       <c r="J13" t="n">
-        <v>0.305988805668125</v>
+        <v>0.0547098644855127</v>
       </c>
       <c r="K13"/>
-      <c r="L13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185203698095028</v>
+        <v>0.250288972864774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0688457525448399</v>
+        <v>0.0930398953573216</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0455790563773646</v>
+        <v>0.061596692302455</v>
       </c>
       <c r="E14" t="n">
-        <v>0.183776745855568</v>
+        <v>0.248360553432468</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00491958672259898</v>
+        <v>0.00664845421761876</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0986886116945811</v>
+        <v>0.133370291784418</v>
       </c>
       <c r="H14" t="n">
-        <v>0.056701102560999</v>
+        <v>0.0590712037026713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0523256219267273</v>
+        <v>0.076627307479632</v>
       </c>
       <c r="J14" t="n">
-        <v>0.303750817609853</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" t="n">
-        <v>0.000209006612439653</v>
+        <v>0.0707141720238828</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.000282456834758371</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.240984982497117</v>
+        <v>0.325967594001451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0324058806563133</v>
+        <v>0.0438337146139927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0451609247871935</v>
+        <v>0.0610867857541211</v>
       </c>
       <c r="E15" t="n">
-        <v>0.191641044500486</v>
+        <v>0.259222668319159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00297493574731674</v>
+        <v>0.00402403767161446</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0828383391593236</v>
+        <v>0.112051024205062</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0618938715729964</v>
+        <v>0.0564487054198829</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0396592152870951</v>
+        <v>0.083720554662886</v>
       </c>
       <c r="J15" t="n">
-        <v>0.302440805792159</v>
+        <v>0.0536449153518296</v>
       </c>
       <c r="K15"/>
-      <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.202787836169445</v>
+        <v>0.28431772631674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.035343530003192</v>
+        <v>0.0495532290315406</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0483951498035171</v>
+        <v>0.0678521908256708</v>
       </c>
       <c r="E16" t="n">
-        <v>0.179928699259412</v>
+        <v>0.252268181558084</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00668957278009283</v>
+        <v>0.00937908386811284</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0914604708629649</v>
+        <v>0.128231720476017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0579847857086254</v>
+        <v>0.0765972509284995</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0352633301442668</v>
+        <v>0.081297294478079</v>
       </c>
       <c r="J16" t="n">
-        <v>0.341388777186134</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" t="n">
-        <v>0.000757848082350675</v>
+        <v>0.0494407851987582</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.00106253731849776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.189369684499701</v>
+        <v>0.277218398941318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0448474431733012</v>
+        <v>0.0656521999598828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0428951050151924</v>
+        <v>0.0627941709157259</v>
       </c>
       <c r="E17" t="n">
-        <v>0.175850018713801</v>
+        <v>0.257426951787089</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00480287701263559</v>
+        <v>0.00703093464654846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0822541512320134</v>
+        <v>0.120411903156821</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0597046632362375</v>
+        <v>0.0601883487706699</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0422674853993173</v>
+        <v>0.0874016936523251</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3580085717178</v>
+        <v>0.0618753981696198</v>
       </c>
       <c r="K17"/>
-      <c r="L17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164014403259876</v>
+        <v>0.226182576494919</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0832880998667042</v>
+        <v>0.114857699353199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0423450999765912</v>
+        <v>0.0583956263857186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.173365348088904</v>
+        <v>0.239077912221868</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00881961625911329</v>
+        <v>0.0121626118775797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.100338070663777</v>
+        <v>0.138370307071771</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0590836545501383</v>
+        <v>0.0620576809456829</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0488230808462855</v>
+        <v>0.0814787783833327</v>
       </c>
       <c r="J18" t="n">
-        <v>0.319858973507917</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" t="n">
-        <v>0.00006365298069354</v>
+        <v>0.0673290271997355</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0000877800661935419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.168466401378847</v>
+        <v>0.23387301156449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.063672674837439</v>
+        <v>0.0883934131477694</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0458138242217202</v>
+        <v>0.0636009136203062</v>
       </c>
       <c r="E19" t="n">
-        <v>0.180902818305583</v>
+        <v>0.251137832655947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00773578294882671</v>
+        <v>0.0107391790899767</v>
       </c>
       <c r="G19" t="n">
-        <v>0.106683954536414</v>
+        <v>0.148103702155611</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0531557676719184</v>
+        <v>0.0590223747935663</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0513858240608926</v>
+        <v>0.0737933461254242</v>
       </c>
       <c r="J19" t="n">
-        <v>0.322182952038359</v>
+        <v>0.0713362268469098</v>
       </c>
       <c r="K19"/>
-      <c r="L19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.213171394551387</v>
+        <v>0.253717449562815</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0526425092479253</v>
+        <v>0.0626553258380587</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0560745002351351</v>
+        <v>0.0667400952886217</v>
       </c>
       <c r="E20" t="n">
-        <v>0.166552814437589</v>
+        <v>0.198231828363009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00704103797439931</v>
+        <v>0.00838027166308604</v>
       </c>
       <c r="G20" t="n">
-        <v>0.161300245999101</v>
+        <v>0.191980200321303</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0592170291816065</v>
+        <v>0.0693765322418422</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0635855946605063</v>
+        <v>0.0704803458562646</v>
       </c>
       <c r="J20" t="n">
-        <v>0.218051539984799</v>
+        <v>0.0756798300266767</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0000459824123001092</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.00231735131525128</v>
+        <v>0.00275812083832317</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.160642537552076</v>
+        <v>0.194635396243417</v>
       </c>
       <c r="C21" t="n">
-        <v>0.108548290185788</v>
+        <v>0.131517715007505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0534209336588631</v>
+        <v>0.0647251017621377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.166893431069416</v>
+        <v>0.202209013761932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00331499661598982</v>
+        <v>0.00401646842567838</v>
       </c>
       <c r="G21" t="n">
-        <v>0.16767741733043</v>
+        <v>0.203158895897056</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0606547669477306</v>
+        <v>0.0562758944231326</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0574325724801184</v>
+        <v>0.0734896546009592</v>
       </c>
       <c r="J21" t="n">
-        <v>0.221096275420877</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" t="n">
-        <v>0.00031877873871023</v>
+        <v>0.0695856257768768</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.000386234101305385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15297589493414</v>
+        <v>0.208499108507835</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0947193856016186</v>
+        <v>0.129098165857109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.039009827555564</v>
+        <v>0.053168600660131</v>
       </c>
       <c r="E22" t="n">
-        <v>0.182743788375036</v>
+        <v>0.249071378062165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00470971174949617</v>
+        <v>0.0064191204864112</v>
       </c>
       <c r="G22" t="n">
-        <v>0.115110602571257</v>
+        <v>0.156890456671226</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0525143052003669</v>
+        <v>0.0525100355375846</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0533441189966199</v>
+        <v>0.0715745825373256</v>
       </c>
       <c r="J22" t="n">
-        <v>0.304690557374404</v>
+        <v>0.0727055805734588</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000135605710566132</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0000462019309313334</v>
+        <v>0.0000629711067529354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137577051506121</v>
+        <v>0.17808970063208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.173007877613296</v>
+        <v>0.223953928317561</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0343820668539027</v>
+        <v>0.0445066377429323</v>
       </c>
       <c r="E23" t="n">
-        <v>0.174855892247352</v>
+        <v>0.226346132317719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00319343607040437</v>
+        <v>0.00413381496070727</v>
       </c>
       <c r="G23" t="n">
-        <v>0.116927802568285</v>
+        <v>0.151359817113295</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0392126561637772</v>
+        <v>0.053646505232317</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0516682144561134</v>
+        <v>0.0507597024412537</v>
       </c>
       <c r="J23" t="n">
-        <v>0.268834690760691</v>
+        <v>0.0668830792922896</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0000925799879520962</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.000247731772104086</v>
+        <v>0.000320681949846179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>0.163683239440749</v>
+        <v>0.216806549814105</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107010734156245</v>
+        <v>0.14174101236485</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0424497640694933</v>
+        <v>0.0562268129576033</v>
       </c>
       <c r="E24" t="n">
-        <v>0.167695194654923</v>
+        <v>0.222120583009964</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00533249890421282</v>
+        <v>0.00706315865485039</v>
       </c>
       <c r="G24" t="n">
-        <v>0.128434244523021</v>
+        <v>0.170117511897709</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0560085649384286</v>
+        <v>0.0573695921186681</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0410469101852841</v>
+        <v>0.0741861156085901</v>
       </c>
       <c r="J24" t="n">
-        <v>0.288338849127642</v>
+        <v>0.0543686635736597</v>
       </c>
       <c r="K24"/>
-      <c r="L24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>0.195569193319392</v>
+        <v>0.262289830925327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0469016828235527</v>
+        <v>0.0629027212778465</v>
       </c>
       <c r="D25" t="n">
-        <v>0.045771973992636</v>
+        <v>0.0613875995287268</v>
       </c>
       <c r="E25" t="n">
-        <v>0.193377362259546</v>
+        <v>0.259350231961165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00626381802332146</v>
+        <v>0.00840079023898647</v>
       </c>
       <c r="G25" t="n">
-        <v>0.106981513551533</v>
+        <v>0.14347946435378</v>
       </c>
       <c r="H25" t="n">
-        <v>0.062548637643598</v>
+        <v>0.0594697375816939</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0436711042397148</v>
+        <v>0.083887811335172</v>
       </c>
       <c r="J25" t="n">
-        <v>0.298719496426111</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" t="n">
-        <v>0.000195217720595239</v>
+        <v>0.058569994347987</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.000261818449314409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.156806283181771</v>
+        <v>0.222037801449158</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0382532541524066</v>
+        <v>0.0541666333639851</v>
       </c>
       <c r="D26" t="n">
-        <v>0.040302333235583</v>
+        <v>0.057068130710852</v>
       </c>
       <c r="E26" t="n">
-        <v>0.217403069671263</v>
+        <v>0.307842891487635</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00549964105477758</v>
+        <v>0.00778749539740573</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0893979812166858</v>
+        <v>0.126587600959434</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0620882040412635</v>
+        <v>0.0622492096926754</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0525023048563908</v>
+        <v>0.0879169382853626</v>
       </c>
       <c r="J26" t="n">
-        <v>0.337746928589859</v>
+        <v>0.0743432986534921</v>
       </c>
       <c r="K26"/>
-      <c r="L26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164446047549041</v>
+        <v>0.216659535558918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0710693416090755</v>
+        <v>0.0936346648338171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0508717622136768</v>
+        <v>0.0670241245597101</v>
       </c>
       <c r="E27" t="n">
-        <v>0.20040950365539</v>
+        <v>0.264041797481458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005992441741306</v>
+        <v>0.00789511006123785</v>
       </c>
       <c r="G27" t="n">
-        <v>0.11019765234063</v>
+        <v>0.145186658674079</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0656427149885458</v>
+        <v>0.0632212931669723</v>
       </c>
       <c r="I27" t="n">
-        <v>0.042391887302311</v>
+        <v>0.0864850226211941</v>
       </c>
       <c r="J27" t="n">
-        <v>0.288978648600024</v>
+        <v>0.0558517930426128</v>
       </c>
       <c r="K27"/>
-      <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0.24271388090461</v>
+        <v>0.288835088527967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0260679645824016</v>
+        <v>0.031021476109399</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0415080071323971</v>
+        <v>0.049395481090829</v>
       </c>
       <c r="E28" t="n">
-        <v>0.151144039616338</v>
+        <v>0.179864875879171</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00394126773519242</v>
+        <v>0.00469019905645248</v>
       </c>
       <c r="G28" t="n">
-        <v>0.208631465109552</v>
+        <v>0.248276231544911</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0663634091439843</v>
+        <v>0.073497208950869</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0381887247910997</v>
+        <v>0.0789739799128081</v>
       </c>
       <c r="J28" t="n">
-        <v>0.217820095234617</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0036211457498079</v>
-      </c>
-      <c r="L28"/>
+        <v>0.0454454589275942</v>
+      </c>
+      <c r="K28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
